--- a/Code/Results/Cases/Case_4_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423000824787039</v>
+        <v>1.119349272945897</v>
       </c>
       <c r="C2">
-        <v>0.8804362567164219</v>
+        <v>0.4034454972101571</v>
       </c>
       <c r="D2">
-        <v>0.3650378448585201</v>
+        <v>0.5750552436731056</v>
       </c>
       <c r="E2">
-        <v>0.1111869462657396</v>
+        <v>0.2058480855811098</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.701907651647048</v>
+        <v>1.827033437555315</v>
       </c>
       <c r="H2">
-        <v>1.006762458189115</v>
+        <v>1.54303804516428</v>
       </c>
       <c r="I2">
-        <v>0.8276862347074356</v>
+        <v>1.186425040851958</v>
       </c>
       <c r="J2">
-        <v>0.03751540256341457</v>
+        <v>0.08799914823944732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8213806618875878</v>
+        <v>0.5851876514217054</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.095927211260232</v>
+        <v>1.033197247967792</v>
       </c>
       <c r="C3">
-        <v>0.7606944815788665</v>
+        <v>0.3728568879844829</v>
       </c>
       <c r="D3">
-        <v>0.3369585497629259</v>
+        <v>0.5717112469103398</v>
       </c>
       <c r="E3">
-        <v>0.1048978727270757</v>
+        <v>0.2055798808092426</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.560062342548434</v>
+        <v>1.804951866953104</v>
       </c>
       <c r="H3">
-        <v>0.9505995195775085</v>
+        <v>1.539796088774011</v>
       </c>
       <c r="I3">
-        <v>0.7893297346972119</v>
+        <v>1.18544203092933</v>
       </c>
       <c r="J3">
-        <v>0.03702704984014815</v>
+        <v>0.08837240945389979</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7163342594238742</v>
+        <v>0.5606221680284804</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.897191948838298</v>
+        <v>0.9807837804196708</v>
       </c>
       <c r="C4">
-        <v>0.6881930512397787</v>
+        <v>0.3542735153050671</v>
       </c>
       <c r="D4">
-        <v>0.3203457784280062</v>
+        <v>0.5699349536108542</v>
       </c>
       <c r="E4">
-        <v>0.1012309998536409</v>
+        <v>0.2055064897186725</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.477219528320774</v>
+        <v>1.792638362165235</v>
       </c>
       <c r="H4">
-        <v>0.9183912304450246</v>
+        <v>1.538650118502545</v>
       </c>
       <c r="I4">
-        <v>0.7679055806452979</v>
+        <v>1.185551612859108</v>
       </c>
       <c r="J4">
-        <v>0.03678756994004573</v>
+        <v>0.08863323954474822</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6528604090319305</v>
+        <v>0.5458576528635533</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816648493042948</v>
+        <v>0.959546690127894</v>
       </c>
       <c r="C5">
-        <v>0.6588669521686938</v>
+        <v>0.3467501998440241</v>
       </c>
       <c r="D5">
-        <v>0.3137207274846929</v>
+        <v>0.5692806657377787</v>
       </c>
       <c r="E5">
-        <v>0.09978202433706329</v>
+        <v>0.2054995163300326</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.44443211692311</v>
+        <v>1.787931781773409</v>
       </c>
       <c r="H5">
-        <v>0.9057932581798696</v>
+        <v>1.538394868596384</v>
       </c>
       <c r="I5">
-        <v>0.7596683026745197</v>
+        <v>1.185774838267292</v>
       </c>
       <c r="J5">
-        <v>0.03670430185228923</v>
+        <v>0.0887474828028143</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6272197545590004</v>
+        <v>0.539921046419785</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.803298772159138</v>
+        <v>0.956027647786641</v>
       </c>
       <c r="C6">
-        <v>0.6540095476454439</v>
+        <v>0.3455039447201216</v>
       </c>
       <c r="D6">
-        <v>0.3126290235968554</v>
+        <v>0.5691762213363063</v>
       </c>
       <c r="E6">
-        <v>0.09954405846674774</v>
+        <v>0.2054997429702681</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.439043785931148</v>
+        <v>1.78716900795942</v>
       </c>
       <c r="H6">
-        <v>0.9037319622774191</v>
+        <v>1.538365254622818</v>
       </c>
       <c r="I6">
-        <v>0.7583291454102863</v>
+        <v>1.185822667714433</v>
       </c>
       <c r="J6">
-        <v>0.03669131645720469</v>
+        <v>0.08876693300618932</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6229748663274819</v>
+        <v>0.5389401094938009</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.896104022997179</v>
+        <v>0.9804968762364012</v>
       </c>
       <c r="C7">
-        <v>0.6877967108400469</v>
+        <v>0.354171852920615</v>
       </c>
       <c r="D7">
-        <v>0.32025586102489</v>
+        <v>0.5699258480762239</v>
       </c>
       <c r="E7">
-        <v>0.1012112796231435</v>
+        <v>0.2055063028409982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.476773534230972</v>
+        <v>1.792573629515914</v>
       </c>
       <c r="H7">
-        <v>0.9182192523492745</v>
+        <v>1.538645819640664</v>
       </c>
       <c r="I7">
-        <v>0.7677925453050847</v>
+        <v>1.185553901348356</v>
       </c>
       <c r="J7">
-        <v>0.03678639005306827</v>
+        <v>0.08863474807490057</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6525137381023143</v>
+        <v>0.5457772657182005</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.309740209038353</v>
+        <v>1.089543553351064</v>
       </c>
       <c r="C8">
-        <v>0.8389136792740715</v>
+        <v>0.3928572427655581</v>
       </c>
       <c r="D8">
-        <v>0.3552175028341082</v>
+        <v>0.5738447097614738</v>
       </c>
       <c r="E8">
-        <v>0.1089757886460809</v>
+        <v>0.2057366484323389</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.652056107995065</v>
+        <v>1.819160339106503</v>
       </c>
       <c r="H8">
-        <v>0.9868967423234096</v>
+        <v>1.541744529686895</v>
       </c>
       <c r="I8">
-        <v>0.813993378207968</v>
+        <v>1.185937623667989</v>
       </c>
       <c r="J8">
-        <v>0.03733394917121302</v>
+        <v>0.08812127753895638</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7849275776546065</v>
+        <v>0.576651230235953</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.141608983373715</v>
+        <v>1.307236679393668</v>
       </c>
       <c r="C9">
-        <v>1.145251314534335</v>
+        <v>0.4703082339450475</v>
       </c>
       <c r="D9">
-        <v>0.4294162804434905</v>
+        <v>0.5837313570833942</v>
       </c>
       <c r="E9">
-        <v>0.1259280247868908</v>
+        <v>0.2069139140343417</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.034355613081232</v>
+        <v>1.881254840693316</v>
       </c>
       <c r="H9">
-        <v>1.14188198521461</v>
+        <v>1.554553836002299</v>
       </c>
       <c r="I9">
-        <v>0.9235371119626237</v>
+        <v>1.192384365667493</v>
       </c>
       <c r="J9">
-        <v>0.03892952789529858</v>
+        <v>0.0873657171523945</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.054345088084844</v>
+        <v>0.6397336476156426</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.7719318848591</v>
+        <v>1.469559267126613</v>
       </c>
       <c r="C10">
-        <v>1.379397901927234</v>
+        <v>0.5282101694770063</v>
       </c>
       <c r="D10">
-        <v>0.4883912015753253</v>
+        <v>0.5923452087204453</v>
       </c>
       <c r="E10">
-        <v>0.1397183491956433</v>
+        <v>0.2082232914172728</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.346291227769171</v>
+        <v>1.933067419856428</v>
       </c>
       <c r="H10">
-        <v>1.271637141114837</v>
+        <v>1.568115832336673</v>
       </c>
       <c r="I10">
-        <v>1.018784510998302</v>
+        <v>1.200643766092185</v>
       </c>
       <c r="J10">
-        <v>0.04048663785538764</v>
+        <v>0.0869642487431932</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.260771499525845</v>
+        <v>0.6876468639535034</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.064515118179258</v>
+        <v>1.543930685318628</v>
       </c>
       <c r="C11">
-        <v>1.488660921530879</v>
+        <v>0.5547751472187201</v>
       </c>
       <c r="D11">
-        <v>0.5164518755407244</v>
+        <v>0.596558902110047</v>
       </c>
       <c r="E11">
-        <v>0.146354698105295</v>
+        <v>0.2089159658392141</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.496883872194218</v>
+        <v>1.958009479760875</v>
       </c>
       <c r="H11">
-        <v>1.335018161763458</v>
+        <v>1.575197231769948</v>
       </c>
       <c r="I11">
-        <v>1.066147651923785</v>
+        <v>1.205177483329209</v>
       </c>
       <c r="J11">
-        <v>0.04129575558116727</v>
+        <v>0.08681506857832488</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.357176196149709</v>
+        <v>0.709788603342659</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.176309485928584</v>
+        <v>1.572169822101102</v>
       </c>
       <c r="C12">
-        <v>1.530505506431666</v>
+        <v>0.5648674333567669</v>
       </c>
       <c r="D12">
-        <v>0.5272801698763203</v>
+        <v>0.5981970942262649</v>
       </c>
       <c r="E12">
-        <v>0.1489269048583921</v>
+        <v>0.2091922518931923</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.555345977145862</v>
+        <v>1.967653760780166</v>
       </c>
       <c r="H12">
-        <v>1.359731992907996</v>
+        <v>1.578010708386216</v>
       </c>
       <c r="I12">
-        <v>1.084742576203169</v>
+        <v>1.207006829233663</v>
       </c>
       <c r="J12">
-        <v>0.04161829675183526</v>
+        <v>0.08676339573165492</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.394104277480025</v>
+        <v>0.7182230942174925</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.152185366123433</v>
+        <v>1.566084623994698</v>
       </c>
       <c r="C13">
-        <v>1.521471382441348</v>
+        <v>0.5626924188763383</v>
       </c>
       <c r="D13">
-        <v>0.5249386700672858</v>
+        <v>0.5978423857252153</v>
       </c>
       <c r="E13">
-        <v>0.1483701821109733</v>
+        <v>0.2091321262256258</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.542688024479133</v>
+        <v>1.965567798986797</v>
       </c>
       <c r="H13">
-        <v>1.35437622186717</v>
+        <v>1.577398897134316</v>
       </c>
       <c r="I13">
-        <v>1.080707117543412</v>
+        <v>1.206607828342655</v>
       </c>
       <c r="J13">
-        <v>0.0415480849524954</v>
+        <v>0.08677430996624835</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.386131320313055</v>
+        <v>0.7164043537543847</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.073691494170077</v>
+        <v>1.54625240650347</v>
       </c>
       <c r="C14">
-        <v>1.492093641859469</v>
+        <v>0.5556047882297435</v>
       </c>
       <c r="D14">
-        <v>0.5173385156648749</v>
+        <v>0.5966928236109368</v>
       </c>
       <c r="E14">
-        <v>0.1465650862354906</v>
+        <v>0.2089384155853011</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.501663652566833</v>
+        <v>1.958798915872194</v>
       </c>
       <c r="H14">
-        <v>1.337036560629798</v>
+        <v>1.575426050226753</v>
       </c>
       <c r="I14">
-        <v>1.067663757712666</v>
+        <v>1.20532572453611</v>
       </c>
       <c r="J14">
-        <v>0.0413219573951018</v>
+        <v>0.08681072080443997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.360205454472847</v>
+        <v>0.7104815129928852</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.025746953499663</v>
+        <v>1.534114539194547</v>
       </c>
       <c r="C15">
-        <v>1.474162371774014</v>
+        <v>0.5512676792530442</v>
       </c>
       <c r="D15">
-        <v>0.512710349979784</v>
+        <v>0.5959942291586628</v>
       </c>
       <c r="E15">
-        <v>0.1454673399464568</v>
+        <v>0.2088215844940393</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.476727983241915</v>
+        <v>1.954678787305056</v>
       </c>
       <c r="H15">
-        <v>1.32651111222242</v>
+        <v>1.574234825150171</v>
       </c>
       <c r="I15">
-        <v>1.059762746275354</v>
+        <v>1.204555078994105</v>
       </c>
       <c r="J15">
-        <v>0.04118560321007436</v>
+        <v>0.08683365125180842</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.344382017176869</v>
+        <v>0.7068601050726926</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.752941635189813</v>
+        <v>1.464709591687438</v>
       </c>
       <c r="C16">
-        <v>1.372318703542078</v>
+        <v>0.5264786437560929</v>
       </c>
       <c r="D16">
-        <v>0.4865842457777774</v>
+        <v>0.5920757833877985</v>
       </c>
       <c r="E16">
-        <v>0.139292528506072</v>
+        <v>0.2081799787770606</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.336639904689576</v>
+        <v>1.931465175995157</v>
       </c>
       <c r="H16">
-        <v>1.267589820463542</v>
+        <v>1.567671462601851</v>
       </c>
       <c r="I16">
-        <v>1.015776957710088</v>
+        <v>1.200363175849986</v>
       </c>
       <c r="J16">
-        <v>0.04043592458213041</v>
+        <v>0.08697467182584262</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.254526671830192</v>
+        <v>0.6862068216204307</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.587188470476633</v>
+        <v>1.422267706975958</v>
       </c>
       <c r="C17">
-        <v>1.310594400835498</v>
+        <v>0.5113292619856225</v>
       </c>
       <c r="D17">
-        <v>0.4708892989493449</v>
+        <v>0.5897476290562054</v>
       </c>
       <c r="E17">
-        <v>0.1356021466741062</v>
+        <v>0.2078112492809296</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.253051534921894</v>
+        <v>1.917577217561046</v>
       </c>
       <c r="H17">
-        <v>1.232617041888489</v>
+        <v>1.563879172151928</v>
       </c>
       <c r="I17">
-        <v>0.9898797852804506</v>
+        <v>1.197991069557681</v>
       </c>
       <c r="J17">
-        <v>0.04000294399494209</v>
+        <v>0.08706975658021676</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.20008548576476</v>
+        <v>0.673625382224543</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.492391277315278</v>
+        <v>1.397906142717659</v>
       </c>
       <c r="C18">
-        <v>1.275345966466318</v>
+        <v>0.502636904556141</v>
       </c>
       <c r="D18">
-        <v>0.4619763299615727</v>
+        <v>0.5884363161121939</v>
       </c>
       <c r="E18">
-        <v>0.1335132440735443</v>
+        <v>0.2076082969625723</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.205779342401485</v>
+        <v>1.909718277993449</v>
       </c>
       <c r="H18">
-        <v>1.212905712476157</v>
+        <v>1.561783740708393</v>
       </c>
       <c r="I18">
-        <v>0.9753588618384441</v>
+        <v>1.196699729899841</v>
       </c>
       <c r="J18">
-        <v>0.03976328015458463</v>
+        <v>0.08712759475555032</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.169003530271112</v>
+        <v>0.6664214062439697</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.460382748065967</v>
+        <v>1.389666301794534</v>
       </c>
       <c r="C19">
-        <v>1.263452941373941</v>
+        <v>0.4996974469479483</v>
       </c>
       <c r="D19">
-        <v>0.4589774787777969</v>
+        <v>0.5879970960893104</v>
       </c>
       <c r="E19">
-        <v>0.1328115690776031</v>
+        <v>0.2075411481110194</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.189906871859847</v>
+        <v>1.907079481274224</v>
       </c>
       <c r="H19">
-        <v>1.206298738068028</v>
+        <v>1.561088975658834</v>
       </c>
       <c r="I19">
-        <v>0.9705043833662401</v>
+        <v>1.196275021586139</v>
       </c>
       <c r="J19">
-        <v>0.03968369732798394</v>
+        <v>0.08714771817784595</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.158517652297874</v>
+        <v>0.6639878466305049</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.604776241043112</v>
+        <v>1.426780554695483</v>
       </c>
       <c r="C20">
-        <v>1.317138292092693</v>
+        <v>0.5129397464990575</v>
       </c>
       <c r="D20">
-        <v>0.4725480466647127</v>
+        <v>0.5899925891867781</v>
       </c>
       <c r="E20">
-        <v>0.1359914579526311</v>
+        <v>0.2078495558982496</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.261865008425815</v>
+        <v>1.919042244654008</v>
       </c>
       <c r="H20">
-        <v>1.236297540509753</v>
+        <v>1.564273983160604</v>
       </c>
       <c r="I20">
-        <v>0.9925972873645321</v>
+        <v>1.19823601941863</v>
       </c>
       <c r="J20">
-        <v>0.04004805392662547</v>
+        <v>0.08705930878652524</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.205856492220263</v>
+        <v>0.674961329443704</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.096718553719711</v>
+        <v>1.552075538161205</v>
       </c>
       <c r="C21">
-        <v>1.500709228612607</v>
+        <v>0.5576857067910623</v>
       </c>
       <c r="D21">
-        <v>0.5195651581249479</v>
+        <v>0.5970293219894245</v>
       </c>
       <c r="E21">
-        <v>0.1470936209344273</v>
+        <v>0.2089949332779248</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.513672928408795</v>
+        <v>1.960781677447301</v>
       </c>
       <c r="H21">
-        <v>1.342109546543952</v>
+        <v>1.576001937218194</v>
       </c>
       <c r="I21">
-        <v>1.071476324749014</v>
+        <v>1.205699248630395</v>
       </c>
       <c r="J21">
-        <v>0.04138792407522374</v>
+        <v>0.08679989521913001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.367808528239991</v>
+        <v>0.7122198393408183</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.424146134285934</v>
+        <v>1.634407814087069</v>
       </c>
       <c r="C22">
-        <v>1.623459204950507</v>
+        <v>0.5871205769499852</v>
       </c>
       <c r="D22">
-        <v>0.5514869646131046</v>
+        <v>0.6018763459015872</v>
       </c>
       <c r="E22">
-        <v>0.1546983026048672</v>
+        <v>0.209825036202016</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.686718634394566</v>
+        <v>1.989223183591349</v>
       </c>
       <c r="H22">
-        <v>1.415467480489582</v>
+        <v>1.584436032670425</v>
       </c>
       <c r="I22">
-        <v>1.126917290658383</v>
+        <v>1.211233193473788</v>
       </c>
       <c r="J22">
-        <v>0.04235864981972171</v>
+        <v>0.08665844311423498</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.476146640544343</v>
+        <v>0.7368613416512204</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.248792612947113</v>
+        <v>1.590424800780454</v>
       </c>
       <c r="C23">
-        <v>1.557664172824616</v>
+        <v>0.5713930601809238</v>
       </c>
       <c r="D23">
-        <v>0.534331335387094</v>
+        <v>0.5992666593616036</v>
       </c>
       <c r="E23">
-        <v>0.1506050834232369</v>
+        <v>0.2093745235114923</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.593517321602576</v>
+        <v>1.973936415646989</v>
       </c>
       <c r="H23">
-        <v>1.375898622980856</v>
+        <v>1.579863961121447</v>
       </c>
       <c r="I23">
-        <v>1.096942525319321</v>
+        <v>1.208219283197863</v>
       </c>
       <c r="J23">
-        <v>0.04183125320054515</v>
+        <v>0.08673136571746198</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.418073683142765</v>
+        <v>0.7236830298483596</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.5968232751855</v>
+        <v>1.424740175265299</v>
       </c>
       <c r="C24">
-        <v>1.314179063953475</v>
+        <v>0.5122115928311928</v>
       </c>
       <c r="D24">
-        <v>0.4717977852236288</v>
+        <v>0.5898817580790876</v>
       </c>
       <c r="E24">
-        <v>0.135815348837788</v>
+        <v>0.2078322093361642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.257878009209406</v>
+        <v>1.91837951534086</v>
       </c>
       <c r="H24">
-        <v>1.234632363187131</v>
+        <v>1.564095224986545</v>
       </c>
       <c r="I24">
-        <v>0.9913675652153131</v>
+        <v>1.198125052078694</v>
       </c>
       <c r="J24">
-        <v>0.04002763099808604</v>
+        <v>0.08706402235194588</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.203246748864345</v>
+        <v>0.6743572565766272</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.913718944145671</v>
+        <v>1.24792897854303</v>
       </c>
       <c r="C25">
-        <v>1.061021098795493</v>
+        <v>0.4491825153622813</v>
       </c>
       <c r="D25">
-        <v>0.408641041423877</v>
+        <v>0.5808202410410672</v>
       </c>
       <c r="E25">
-        <v>0.1211298679897865</v>
+        <v>0.2065175407182984</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.926076051521846</v>
+        <v>1.863378092139129</v>
       </c>
       <c r="H25">
-        <v>1.097441883020053</v>
+        <v>1.550363009692518</v>
       </c>
       <c r="I25">
-        <v>0.8915640409803061</v>
+        <v>1.190025426017996</v>
       </c>
       <c r="J25">
-        <v>0.03843558382072487</v>
+        <v>0.0875431655972605</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9801713448307225</v>
+        <v>0.6223944826080086</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.119349272945897</v>
+        <v>2.423000824787266</v>
       </c>
       <c r="C2">
-        <v>0.4034454972101571</v>
+        <v>0.8804362567162798</v>
       </c>
       <c r="D2">
-        <v>0.5750552436731056</v>
+        <v>0.3650378448583211</v>
       </c>
       <c r="E2">
-        <v>0.2058480855811098</v>
+        <v>0.1111869462657609</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.827033437555315</v>
+        <v>1.701907651646962</v>
       </c>
       <c r="H2">
-        <v>1.54303804516428</v>
+        <v>1.006762458189144</v>
       </c>
       <c r="I2">
-        <v>1.186425040851958</v>
+        <v>0.8276862347074072</v>
       </c>
       <c r="J2">
-        <v>0.08799914823944732</v>
+        <v>0.0375154025633897</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5851876514217054</v>
+        <v>0.8213806618875807</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.033197247967792</v>
+        <v>2.095927211260232</v>
       </c>
       <c r="C3">
-        <v>0.3728568879844829</v>
+        <v>0.7606944815788665</v>
       </c>
       <c r="D3">
-        <v>0.5717112469103398</v>
+        <v>0.3369585497629117</v>
       </c>
       <c r="E3">
-        <v>0.2055798808092426</v>
+        <v>0.1048978727270509</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.804951866953104</v>
+        <v>1.560062342548491</v>
       </c>
       <c r="H3">
-        <v>1.539796088774011</v>
+        <v>0.950599519577537</v>
       </c>
       <c r="I3">
-        <v>1.18544203092933</v>
+        <v>0.7893297346972403</v>
       </c>
       <c r="J3">
-        <v>0.08837240945389979</v>
+        <v>0.03702704984012684</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5606221680284804</v>
+        <v>0.7163342594238955</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9807837804196708</v>
+        <v>1.897191948838241</v>
       </c>
       <c r="C4">
-        <v>0.3542735153050671</v>
+        <v>0.6881930512396366</v>
       </c>
       <c r="D4">
-        <v>0.5699349536108542</v>
+        <v>0.3203457784280772</v>
       </c>
       <c r="E4">
-        <v>0.2055064897186725</v>
+        <v>0.1012309998536409</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.792638362165235</v>
+        <v>1.477219528320802</v>
       </c>
       <c r="H4">
-        <v>1.538650118502545</v>
+        <v>0.918391230445053</v>
       </c>
       <c r="I4">
-        <v>1.185551612859108</v>
+        <v>0.7679055806453192</v>
       </c>
       <c r="J4">
-        <v>0.08863323954474822</v>
+        <v>0.03678756994005283</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5458576528635533</v>
+        <v>0.6528604090319376</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.959546690127894</v>
+        <v>1.816648493043033</v>
       </c>
       <c r="C5">
-        <v>0.3467501998440241</v>
+        <v>0.6588669521689496</v>
       </c>
       <c r="D5">
-        <v>0.5692806657377787</v>
+        <v>0.3137207274845366</v>
       </c>
       <c r="E5">
-        <v>0.2054995163300326</v>
+        <v>0.09978202433709171</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.787931781773409</v>
+        <v>1.44443211692311</v>
       </c>
       <c r="H5">
-        <v>1.538394868596384</v>
+        <v>0.9057932581799832</v>
       </c>
       <c r="I5">
-        <v>1.185774838267292</v>
+        <v>0.7596683026745268</v>
       </c>
       <c r="J5">
-        <v>0.0887474828028143</v>
+        <v>0.03670430185232476</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.539921046419785</v>
+        <v>0.6272197545590075</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.956027647786641</v>
+        <v>1.80329877215911</v>
       </c>
       <c r="C6">
-        <v>0.3455039447201216</v>
+        <v>0.6540095476451597</v>
       </c>
       <c r="D6">
-        <v>0.5691762213363063</v>
+        <v>0.3126290235967417</v>
       </c>
       <c r="E6">
-        <v>0.2054997429702681</v>
+        <v>0.09954405846674419</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.78716900795942</v>
+        <v>1.439043785931119</v>
       </c>
       <c r="H6">
-        <v>1.538365254622818</v>
+        <v>0.9037319622775328</v>
       </c>
       <c r="I6">
-        <v>1.185822667714433</v>
+        <v>0.7583291454102934</v>
       </c>
       <c r="J6">
-        <v>0.08876693300618932</v>
+        <v>0.03669131645722779</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5389401094938009</v>
+        <v>0.6229748663274677</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9804968762364012</v>
+        <v>1.896104022997207</v>
       </c>
       <c r="C7">
-        <v>0.354171852920615</v>
+        <v>0.6877967108398764</v>
       </c>
       <c r="D7">
-        <v>0.5699258480762239</v>
+        <v>0.320255861024819</v>
       </c>
       <c r="E7">
-        <v>0.2055063028409982</v>
+        <v>0.1012112796231186</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.792573629515914</v>
+        <v>1.476773534230972</v>
       </c>
       <c r="H7">
-        <v>1.538645819640664</v>
+        <v>0.9182192523493029</v>
       </c>
       <c r="I7">
-        <v>1.185553901348356</v>
+        <v>0.7677925453050847</v>
       </c>
       <c r="J7">
-        <v>0.08863474807490057</v>
+        <v>0.03678639005307183</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5457772657182005</v>
+        <v>0.6525137381023143</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.089543553351064</v>
+        <v>2.30974020903858</v>
       </c>
       <c r="C8">
-        <v>0.3928572427655581</v>
+        <v>0.8389136792738725</v>
       </c>
       <c r="D8">
-        <v>0.5738447097614738</v>
+        <v>0.3552175028338667</v>
       </c>
       <c r="E8">
-        <v>0.2057366484323389</v>
+        <v>0.1089757886461094</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.819160339106503</v>
+        <v>1.652056107995008</v>
       </c>
       <c r="H8">
-        <v>1.541744529686895</v>
+        <v>0.9868967423232959</v>
       </c>
       <c r="I8">
-        <v>1.185937623667989</v>
+        <v>0.8139933782079822</v>
       </c>
       <c r="J8">
-        <v>0.08812127753895638</v>
+        <v>0.03733394917112776</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.576651230235953</v>
+        <v>0.7849275776546136</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.307236679393668</v>
+        <v>3.141608983373828</v>
       </c>
       <c r="C9">
-        <v>0.4703082339450475</v>
+        <v>1.145251314534448</v>
       </c>
       <c r="D9">
-        <v>0.5837313570833942</v>
+        <v>0.429416280443391</v>
       </c>
       <c r="E9">
-        <v>0.2069139140343417</v>
+        <v>0.1259280247868908</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.881254840693316</v>
+        <v>2.034355613081203</v>
       </c>
       <c r="H9">
-        <v>1.554553836002299</v>
+        <v>1.14188198521461</v>
       </c>
       <c r="I9">
-        <v>1.192384365667493</v>
+        <v>0.9235371119626308</v>
       </c>
       <c r="J9">
-        <v>0.0873657171523945</v>
+        <v>0.03892952789536608</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6397336476156426</v>
+        <v>1.054345088084837</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.469559267126613</v>
+        <v>3.771931884859214</v>
       </c>
       <c r="C10">
-        <v>0.5282101694770063</v>
+        <v>1.379397901927348</v>
       </c>
       <c r="D10">
-        <v>0.5923452087204453</v>
+        <v>0.4883912015755527</v>
       </c>
       <c r="E10">
-        <v>0.2082232914172728</v>
+        <v>0.1397183491956717</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.933067419856428</v>
+        <v>2.346291227769058</v>
       </c>
       <c r="H10">
-        <v>1.568115832336673</v>
+        <v>1.271637141114951</v>
       </c>
       <c r="I10">
-        <v>1.200643766092185</v>
+        <v>1.018784510998316</v>
       </c>
       <c r="J10">
-        <v>0.0869642487431932</v>
+        <v>0.04048663785537698</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6876468639535034</v>
+        <v>1.260771499525845</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.543930685318628</v>
+        <v>4.064515118179202</v>
       </c>
       <c r="C11">
-        <v>0.5547751472187201</v>
+        <v>1.488660921530879</v>
       </c>
       <c r="D11">
-        <v>0.596558902110047</v>
+        <v>0.5164518755409517</v>
       </c>
       <c r="E11">
-        <v>0.2089159658392141</v>
+        <v>0.1463546981052986</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.958009479760875</v>
+        <v>2.496883872194161</v>
       </c>
       <c r="H11">
-        <v>1.575197231769948</v>
+        <v>1.335018161763571</v>
       </c>
       <c r="I11">
-        <v>1.205177483329209</v>
+        <v>1.066147651923785</v>
       </c>
       <c r="J11">
-        <v>0.08681506857832488</v>
+        <v>0.04129575558113885</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.709788603342659</v>
+        <v>1.357176196149709</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.572169822101102</v>
+        <v>4.176309485928755</v>
       </c>
       <c r="C12">
-        <v>0.5648674333567669</v>
+        <v>1.530505506431894</v>
       </c>
       <c r="D12">
-        <v>0.5981970942262649</v>
+        <v>0.5272801698764624</v>
       </c>
       <c r="E12">
-        <v>0.2091922518931923</v>
+        <v>0.1489269048583886</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.967653760780166</v>
+        <v>2.555345977145976</v>
       </c>
       <c r="H12">
-        <v>1.578010708386216</v>
+        <v>1.359731992907967</v>
       </c>
       <c r="I12">
-        <v>1.207006829233663</v>
+        <v>1.084742576203169</v>
       </c>
       <c r="J12">
-        <v>0.08676339573165492</v>
+        <v>0.04161829675172157</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7182230942174925</v>
+        <v>1.394104277480011</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.566084623994698</v>
+        <v>4.152185366123547</v>
       </c>
       <c r="C13">
-        <v>0.5626924188763383</v>
+        <v>1.52147138244095</v>
       </c>
       <c r="D13">
-        <v>0.5978423857252153</v>
+        <v>0.5249386700670868</v>
       </c>
       <c r="E13">
-        <v>0.2091321262256258</v>
+        <v>0.1483701821109769</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.965567798986797</v>
+        <v>2.542688024479105</v>
       </c>
       <c r="H13">
-        <v>1.577398897134316</v>
+        <v>1.354376221867255</v>
       </c>
       <c r="I13">
-        <v>1.206607828342655</v>
+        <v>1.080707117543412</v>
       </c>
       <c r="J13">
-        <v>0.08677430996624835</v>
+        <v>0.04154808495258067</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7164043537543847</v>
+        <v>1.386131320313069</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.54625240650347</v>
+        <v>4.073691494170021</v>
       </c>
       <c r="C14">
-        <v>0.5556047882297435</v>
+        <v>1.492093641859299</v>
       </c>
       <c r="D14">
-        <v>0.5966928236109368</v>
+        <v>0.5173385156648465</v>
       </c>
       <c r="E14">
-        <v>0.2089384155853011</v>
+        <v>0.1465650862355261</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.958798915872194</v>
+        <v>2.501663652566805</v>
       </c>
       <c r="H14">
-        <v>1.575426050226753</v>
+        <v>1.337036560629798</v>
       </c>
       <c r="I14">
-        <v>1.20532572453611</v>
+        <v>1.06766375771268</v>
       </c>
       <c r="J14">
-        <v>0.08681072080443997</v>
+        <v>0.04132195739518352</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7104815129928852</v>
+        <v>1.360205454472847</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.534114539194547</v>
+        <v>4.025746953499606</v>
       </c>
       <c r="C15">
-        <v>0.5512676792530442</v>
+        <v>1.474162371773787</v>
       </c>
       <c r="D15">
-        <v>0.5959942291586628</v>
+        <v>0.5127103499800398</v>
       </c>
       <c r="E15">
-        <v>0.2088215844940393</v>
+        <v>0.1454673399464923</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.954678787305056</v>
+        <v>2.476727983241915</v>
       </c>
       <c r="H15">
-        <v>1.574234825150171</v>
+        <v>1.326511112222391</v>
       </c>
       <c r="I15">
-        <v>1.204555078994105</v>
+        <v>1.059762746275339</v>
       </c>
       <c r="J15">
-        <v>0.08683365125180842</v>
+        <v>0.04118560321001397</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7068601050726926</v>
+        <v>1.344382017176855</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.464709591687438</v>
+        <v>3.752941635189813</v>
       </c>
       <c r="C16">
-        <v>0.5264786437560929</v>
+        <v>1.372318703542021</v>
       </c>
       <c r="D16">
-        <v>0.5920757833877985</v>
+        <v>0.4865842457776637</v>
       </c>
       <c r="E16">
-        <v>0.2081799787770606</v>
+        <v>0.1392925285060258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.931465175995157</v>
+        <v>2.336639904689576</v>
       </c>
       <c r="H16">
-        <v>1.567671462601851</v>
+        <v>1.267589820463428</v>
       </c>
       <c r="I16">
-        <v>1.200363175849986</v>
+        <v>1.015776957710088</v>
       </c>
       <c r="J16">
-        <v>0.08697467182584262</v>
+        <v>0.04043592458216239</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6862068216204307</v>
+        <v>1.254526671830206</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.422267706975958</v>
+        <v>3.587188470476747</v>
       </c>
       <c r="C17">
-        <v>0.5113292619856225</v>
+        <v>1.310594400835498</v>
       </c>
       <c r="D17">
-        <v>0.5897476290562054</v>
+        <v>0.4708892989493734</v>
       </c>
       <c r="E17">
-        <v>0.2078112492809296</v>
+        <v>0.1356021466741453</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.917577217561046</v>
+        <v>2.253051534921866</v>
       </c>
       <c r="H17">
-        <v>1.563879172151928</v>
+        <v>1.232617041888375</v>
       </c>
       <c r="I17">
-        <v>1.197991069557681</v>
+        <v>0.9898797852804364</v>
       </c>
       <c r="J17">
-        <v>0.08706975658021676</v>
+        <v>0.04000294399494564</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.673625382224543</v>
+        <v>1.200085485764774</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.397906142717659</v>
+        <v>3.492391277315392</v>
       </c>
       <c r="C18">
-        <v>0.502636904556141</v>
+        <v>1.275345966466205</v>
       </c>
       <c r="D18">
-        <v>0.5884363161121939</v>
+        <v>0.4619763299617432</v>
       </c>
       <c r="E18">
-        <v>0.2076082969625723</v>
+        <v>0.1335132440735691</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.909718277993449</v>
+        <v>2.205779342401428</v>
       </c>
       <c r="H18">
-        <v>1.561783740708393</v>
+        <v>1.212905712476271</v>
       </c>
       <c r="I18">
-        <v>1.196699729899841</v>
+        <v>0.9753588618384441</v>
       </c>
       <c r="J18">
-        <v>0.08712759475555032</v>
+        <v>0.03976328015464148</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6664214062439697</v>
+        <v>1.169003530271084</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389666301794534</v>
+        <v>3.460382748066081</v>
       </c>
       <c r="C19">
-        <v>0.4996974469479483</v>
+        <v>1.26345294137343</v>
       </c>
       <c r="D19">
-        <v>0.5879970960893104</v>
+        <v>0.4589774787777117</v>
       </c>
       <c r="E19">
-        <v>0.2075411481110194</v>
+        <v>0.1328115690776137</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.907079481274224</v>
+        <v>2.18990687185979</v>
       </c>
       <c r="H19">
-        <v>1.561088975658834</v>
+        <v>1.206298738068114</v>
       </c>
       <c r="I19">
-        <v>1.196275021586139</v>
+        <v>0.970504383366233</v>
       </c>
       <c r="J19">
-        <v>0.08714771817784595</v>
+        <v>0.03968369732794486</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6639878466305049</v>
+        <v>1.15851765229786</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.426780554695483</v>
+        <v>3.604776241042998</v>
       </c>
       <c r="C20">
-        <v>0.5129397464990575</v>
+        <v>1.317138292092181</v>
       </c>
       <c r="D20">
-        <v>0.5899925891867781</v>
+        <v>0.472548046664599</v>
       </c>
       <c r="E20">
-        <v>0.2078495558982496</v>
+        <v>0.1359914579526063</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.919042244654008</v>
+        <v>2.26186500842573</v>
       </c>
       <c r="H20">
-        <v>1.564273983160604</v>
+        <v>1.236297540509867</v>
       </c>
       <c r="I20">
-        <v>1.19823601941863</v>
+        <v>0.9925972873645463</v>
       </c>
       <c r="J20">
-        <v>0.08705930878652524</v>
+        <v>0.04004805392662192</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.674961329443704</v>
+        <v>1.205856492220249</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.552075538161205</v>
+        <v>4.096718553719654</v>
       </c>
       <c r="C21">
-        <v>0.5576857067910623</v>
+        <v>1.50070922861272</v>
       </c>
       <c r="D21">
-        <v>0.5970293219894245</v>
+        <v>0.5195651581249479</v>
       </c>
       <c r="E21">
-        <v>0.2089949332779248</v>
+        <v>0.1470936209344309</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.960781677447301</v>
+        <v>2.513672928408852</v>
       </c>
       <c r="H21">
-        <v>1.576001937218194</v>
+        <v>1.342109546544066</v>
       </c>
       <c r="I21">
-        <v>1.205699248630395</v>
+        <v>1.071476324749</v>
       </c>
       <c r="J21">
-        <v>0.08679989521913001</v>
+        <v>0.04138792407532677</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7122198393408183</v>
+        <v>1.367808528239991</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.634407814087069</v>
+        <v>4.424146134286048</v>
       </c>
       <c r="C22">
-        <v>0.5871205769499852</v>
+        <v>1.623459204950336</v>
       </c>
       <c r="D22">
-        <v>0.6018763459015872</v>
+        <v>0.5514869646128489</v>
       </c>
       <c r="E22">
-        <v>0.209825036202016</v>
+        <v>0.1546983026047606</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.989223183591349</v>
+        <v>2.686718634394708</v>
       </c>
       <c r="H22">
-        <v>1.584436032670425</v>
+        <v>1.415467480489554</v>
       </c>
       <c r="I22">
-        <v>1.211233193473788</v>
+        <v>1.126917290658412</v>
       </c>
       <c r="J22">
-        <v>0.08665844311423498</v>
+        <v>0.0423586498196542</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7368613416512204</v>
+        <v>1.476146640544314</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.590424800780454</v>
+        <v>4.24879261294717</v>
       </c>
       <c r="C23">
-        <v>0.5713930601809238</v>
+        <v>1.557664172824616</v>
       </c>
       <c r="D23">
-        <v>0.5992666593616036</v>
+        <v>0.5343313353873214</v>
       </c>
       <c r="E23">
-        <v>0.2093745235114923</v>
+        <v>0.1506050834232724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.973936415646989</v>
+        <v>2.593517321602576</v>
       </c>
       <c r="H23">
-        <v>1.579863961121447</v>
+        <v>1.375898622980856</v>
       </c>
       <c r="I23">
-        <v>1.208219283197863</v>
+        <v>1.096942525319321</v>
       </c>
       <c r="J23">
-        <v>0.08673136571746198</v>
+        <v>0.04183125320060199</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7236830298483596</v>
+        <v>1.418073683142779</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.424740175265299</v>
+        <v>3.596823275185557</v>
       </c>
       <c r="C24">
-        <v>0.5122115928311928</v>
+        <v>1.314179063953134</v>
       </c>
       <c r="D24">
-        <v>0.5898817580790876</v>
+        <v>0.4717977852236572</v>
       </c>
       <c r="E24">
-        <v>0.2078322093361642</v>
+        <v>0.1358153488378413</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.91837951534086</v>
+        <v>2.257878009209321</v>
       </c>
       <c r="H24">
-        <v>1.564095224986545</v>
+        <v>1.234632363187217</v>
       </c>
       <c r="I24">
-        <v>1.198125052078694</v>
+        <v>0.9913675652153131</v>
       </c>
       <c r="J24">
-        <v>0.08706402235194588</v>
+        <v>0.04002763099812157</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6743572565766272</v>
+        <v>1.203246748864387</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.24792897854303</v>
+        <v>2.913718944145842</v>
       </c>
       <c r="C25">
-        <v>0.4491825153622813</v>
+        <v>1.061021098795152</v>
       </c>
       <c r="D25">
-        <v>0.5808202410410672</v>
+        <v>0.4086410414238202</v>
       </c>
       <c r="E25">
-        <v>0.2065175407182984</v>
+        <v>0.1211298679897865</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.863378092139129</v>
+        <v>1.926076051521875</v>
       </c>
       <c r="H25">
-        <v>1.550363009692518</v>
+        <v>1.097441883020053</v>
       </c>
       <c r="I25">
-        <v>1.190025426017996</v>
+        <v>0.8915640409803061</v>
       </c>
       <c r="J25">
-        <v>0.0875431655972605</v>
+        <v>0.03843558382067513</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6223944826080086</v>
+        <v>0.9801713448307368</v>
       </c>
       <c r="N25">
         <v>0</v>
